--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col1a1-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H2">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J2">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>61.15062436979157</v>
+        <v>284.4355858018718</v>
       </c>
       <c r="R2">
-        <v>61.15062436979157</v>
+        <v>2559.920272216846</v>
       </c>
       <c r="S2">
-        <v>0.0001052213836730473</v>
+        <v>0.0004459700474071062</v>
       </c>
       <c r="T2">
-        <v>0.0001052213836730473</v>
+        <v>0.0004459700474071062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H3">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J3">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>96.32627118206584</v>
+        <v>368.3830062508591</v>
       </c>
       <c r="R3">
-        <v>96.32627118206584</v>
+        <v>3315.447056257732</v>
       </c>
       <c r="S3">
-        <v>0.0001657478340131083</v>
+        <v>0.0005775922386733469</v>
       </c>
       <c r="T3">
-        <v>0.0001657478340131083</v>
+        <v>0.0005775922386733467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H4">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J4">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>51.93314654508866</v>
+        <v>231.0684606823462</v>
       </c>
       <c r="R4">
-        <v>51.93314654508866</v>
+        <v>2079.616146141116</v>
       </c>
       <c r="S4">
-        <v>8.936094429591497E-05</v>
+        <v>0.000362295076666581</v>
       </c>
       <c r="T4">
-        <v>8.936094429591497E-05</v>
+        <v>0.000362295076666581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.38607109755241</v>
+        <v>9.108069666666667</v>
       </c>
       <c r="H5">
-        <v>2.38607109755241</v>
+        <v>27.324209</v>
       </c>
       <c r="I5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="J5">
-        <v>0.0004071960358529066</v>
+        <v>0.00155006418458712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>27.23664476550339</v>
+        <v>104.7295975016732</v>
       </c>
       <c r="R5">
-        <v>27.23664476550339</v>
+        <v>942.566377515059</v>
       </c>
       <c r="S5">
-        <v>4.686587387083608E-05</v>
+        <v>0.0001642068218400857</v>
       </c>
       <c r="T5">
-        <v>4.686587387083608E-05</v>
+        <v>0.0001642068218400857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J6">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>147836.1174049209</v>
+        <v>180249.6346953931</v>
       </c>
       <c r="R6">
-        <v>147836.1174049209</v>
+        <v>1622246.712258538</v>
       </c>
       <c r="S6">
-        <v>0.2543804088757805</v>
+        <v>0.2826156154251815</v>
       </c>
       <c r="T6">
-        <v>0.2543804088757805</v>
+        <v>0.2826156154251816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J7">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>232875.82232251</v>
+        <v>233447.942589577</v>
       </c>
       <c r="R7">
-        <v>232875.82232251</v>
+        <v>2101031.483306193</v>
       </c>
       <c r="S7">
-        <v>0.4007075398052347</v>
+        <v>0.3660258955652796</v>
       </c>
       <c r="T7">
-        <v>0.4007075398052347</v>
+        <v>0.3660258955652796</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J8">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>125552.1890245723</v>
+        <v>146430.3614127653</v>
       </c>
       <c r="R8">
-        <v>125552.1890245723</v>
+        <v>1317873.252714888</v>
       </c>
       <c r="S8">
-        <v>0.2160366339427207</v>
+        <v>0.2295899615970658</v>
       </c>
       <c r="T8">
-        <v>0.2160366339427207</v>
+        <v>0.2295899615970658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5768.50180271428</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
-        <v>5768.50180271428</v>
+        <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423312</v>
       </c>
       <c r="J9">
-        <v>0.9844262684733377</v>
+        <v>0.9822909543423313</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>65846.58545625911</v>
+        <v>66368.17836366495</v>
       </c>
       <c r="R9">
-        <v>65846.58545625911</v>
+        <v>597313.6052729846</v>
       </c>
       <c r="S9">
-        <v>0.1133016858496019</v>
+        <v>0.1040594817548043</v>
       </c>
       <c r="T9">
-        <v>0.1133016858496019</v>
+        <v>0.1040594817548043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H10">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J10">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>25.39724047385693</v>
+        <v>39.72416951528511</v>
       </c>
       <c r="R10">
-        <v>25.39724047385693</v>
+        <v>357.5175256375659</v>
       </c>
       <c r="S10">
-        <v>4.370082581620343E-05</v>
+        <v>6.228401313427724E-05</v>
       </c>
       <c r="T10">
-        <v>4.370082581620343E-05</v>
+        <v>6.228401313427725E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H11">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J11">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>40.00648396272818</v>
+        <v>51.44823544355244</v>
       </c>
       <c r="R11">
-        <v>40.00648396272818</v>
+        <v>463.0341189919719</v>
       </c>
       <c r="S11">
-        <v>6.883883266662683E-05</v>
+        <v>8.066632005657449E-05</v>
       </c>
       <c r="T11">
-        <v>6.883883266662683E-05</v>
+        <v>8.066632005657449E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H12">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J12">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>21.56901298985322</v>
+        <v>32.27093640869289</v>
       </c>
       <c r="R12">
-        <v>21.56901298985322</v>
+        <v>290.438427678236</v>
       </c>
       <c r="S12">
-        <v>3.711362581565775E-05</v>
+        <v>5.059799743229515E-05</v>
       </c>
       <c r="T12">
-        <v>3.711362581565775E-05</v>
+        <v>5.059799743229516E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.990989414691807</v>
+        <v>1.272029666666667</v>
       </c>
       <c r="H13">
-        <v>0.990989414691807</v>
+        <v>3.816089</v>
       </c>
       <c r="I13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="J13">
-        <v>0.000169117744080898</v>
+        <v>0.0002164813950916887</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>11.31199597615595</v>
+        <v>14.62649714765989</v>
       </c>
       <c r="R13">
-        <v>11.31199597615595</v>
+        <v>131.638474328939</v>
       </c>
       <c r="S13">
-        <v>1.946445978241005E-05</v>
+        <v>2.293306446854183E-05</v>
       </c>
       <c r="T13">
-        <v>1.946445978241005E-05</v>
+        <v>2.293306446854183E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H14">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J14">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>2252.235725296526</v>
+        <v>2925.43650380345</v>
       </c>
       <c r="R14">
-        <v>2252.235725296526</v>
+        <v>26328.92853423105</v>
       </c>
       <c r="S14">
-        <v>0.003875403756149374</v>
+        <v>0.004586827814141666</v>
       </c>
       <c r="T14">
-        <v>0.003875403756149374</v>
+        <v>0.004586827814141666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H15">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J15">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>3547.788292870203</v>
+        <v>3788.840594009901</v>
       </c>
       <c r="R15">
-        <v>3547.788292870203</v>
+        <v>34099.5653460891</v>
       </c>
       <c r="S15">
-        <v>0.006104650557570644</v>
+        <v>0.005940569688441018</v>
       </c>
       <c r="T15">
-        <v>0.006104650557570644</v>
+        <v>0.005940569688441017</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H16">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J16">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>1912.747239808881</v>
+        <v>2376.5525254237</v>
       </c>
       <c r="R16">
-        <v>1912.747239808881</v>
+        <v>21388.9727288133</v>
       </c>
       <c r="S16">
-        <v>0.003291248671026095</v>
+        <v>0.003726225884995122</v>
       </c>
       <c r="T16">
-        <v>0.003291248671026095</v>
+        <v>0.003726225884995122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.8812706229666</v>
+        <v>93.67702500000001</v>
       </c>
       <c r="H17">
-        <v>87.8812706229666</v>
+        <v>281.031075</v>
       </c>
       <c r="I17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="J17">
-        <v>0.01499741774672851</v>
+        <v>0.01594250007799006</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>1003.151562396491</v>
+        <v>1077.149987039425</v>
       </c>
       <c r="R17">
-        <v>1003.151562396491</v>
+        <v>9694.349883354827</v>
       </c>
       <c r="S17">
-        <v>0.001726114761982401</v>
+        <v>0.001688876690412256</v>
       </c>
       <c r="T17">
-        <v>0.001726114761982401</v>
+        <v>0.001688876690412256</v>
       </c>
     </row>
   </sheetData>
